--- a/spliced/walkingToRunning/2023-04-03_16-57-58/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-57-58/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3753622647413304</v>
+        <v>-0.5661214577783016</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.087778420331547</v>
+        <v>0.805141581702479</v>
       </c>
       <c r="C2" t="n">
-        <v>2.298953946103754</v>
+        <v>0.8477507522425696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5661214577783016</v>
+        <v>0.1438278629607797</v>
       </c>
       <c r="B3" t="n">
-        <v>0.805141581702479</v>
+        <v>0.8614468347166002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8477507522425696</v>
+        <v>1.115631847037484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1438278629607797</v>
+        <v>-0.4003904950372941</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8614468347166002</v>
+        <v>-0.7370264149203714</v>
       </c>
       <c r="C4" t="n">
-        <v>1.115631847037484</v>
+        <v>1.407975565526903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4003904950372941</v>
+        <v>-1.850929208023019</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7370264149203714</v>
+        <v>-0.8067298377912074</v>
       </c>
       <c r="C5" t="n">
-        <v>1.407975565526903</v>
+        <v>1.924195033987769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.850929208023019</v>
+        <v>1.216999459512474</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8067298377912074</v>
+        <v>2.244742146472358</v>
       </c>
       <c r="C6" t="n">
-        <v>1.924195033987769</v>
+        <v>1.425124129069217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.216999459512474</v>
+        <v>1.951125894625162</v>
       </c>
       <c r="B7" t="n">
-        <v>2.244742146472358</v>
+        <v>-0.8992925304727453</v>
       </c>
       <c r="C7" t="n">
-        <v>1.425124129069217</v>
+        <v>-2.80149388804878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.951125894625162</v>
+        <v>2.551841642438747</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8992925304727453</v>
+        <v>-0.6748566922453322</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.80149388804878</v>
+        <v>-4.086812415073823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.551841642438747</v>
+        <v>3.262301676052138</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6748566922453322</v>
+        <v>7.791552522133367</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.086812415073823</v>
+        <v>-4.036898785030718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.262301676052138</v>
+        <v>-0.5540796260243908</v>
       </c>
       <c r="B10" t="n">
-        <v>7.791552522133367</v>
+        <v>0.137176956098088</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.036898785030718</v>
+        <v>3.155596782251743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5540796260243908</v>
+        <v>-5.821180953192928</v>
       </c>
       <c r="B11" t="n">
-        <v>0.137176956098088</v>
+        <v>-0.3604773762299962</v>
       </c>
       <c r="C11" t="n">
-        <v>3.155596782251743</v>
+        <v>6.847419001392469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-5.821180953192928</v>
+        <v>-1.270634695426653</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3604773762299962</v>
+        <v>9.376413344722517</v>
       </c>
       <c r="C12" t="n">
-        <v>6.847419001392469</v>
+        <v>6.209869222542664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.270634695426653</v>
+        <v>3.261642898480927</v>
       </c>
       <c r="B13" t="n">
-        <v>9.376413344722517</v>
+        <v>5.511875408211909</v>
       </c>
       <c r="C13" t="n">
-        <v>6.209869222542664</v>
+        <v>-1.028492839066049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.261642898480927</v>
+        <v>5.973592050296736</v>
       </c>
       <c r="B14" t="n">
-        <v>5.511875408211909</v>
+        <v>4.099933066318941</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.028492839066049</v>
+        <v>-1.225896279221969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.973592050296736</v>
+        <v>1.483463850217993</v>
       </c>
       <c r="B15" t="n">
-        <v>4.099933066318941</v>
+        <v>4.285772220375612</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.225896279221969</v>
+        <v>-1.806800371900048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.483463850217993</v>
+        <v>-3.507514472474761</v>
       </c>
       <c r="B16" t="n">
-        <v>4.285772220375612</v>
+        <v>1.878604103609455</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.806800371900048</v>
+        <v>3.185330727665702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.507514472474761</v>
+        <v>-6.308687647593385</v>
       </c>
       <c r="B17" t="n">
-        <v>1.878604103609455</v>
+        <v>2.062971848187983</v>
       </c>
       <c r="C17" t="n">
-        <v>3.185330727665702</v>
+        <v>5.004165634666524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.308687647593385</v>
+        <v>-2.792897569150028</v>
       </c>
       <c r="B18" t="n">
-        <v>2.062971848187983</v>
+        <v>2.23644521801742</v>
       </c>
       <c r="C18" t="n">
-        <v>5.004165634666524</v>
+        <v>0.9470839869115668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.792897569150028</v>
+        <v>2.260217314221203</v>
       </c>
       <c r="B19" t="n">
-        <v>2.23644521801742</v>
+        <v>-3.150663144809698</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9470839869115668</v>
+        <v>-5.311289759026373</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.260217314221203</v>
+        <v>4.283928630278282</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.150663144809698</v>
+        <v>-5.230592103348566</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.311289759026373</v>
+        <v>-8.01730884964933</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.283928630278282</v>
+        <v>0.06544841687701197</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.230592103348566</v>
+        <v>-3.185547882748625</v>
       </c>
       <c r="C21" t="n">
-        <v>-8.01730884964933</v>
+        <v>-1.701872078413778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-8.064484859250227</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-7.12666956174002</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.896797829067585</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.302934056704871</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.102355150832409</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.8136555189938615</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.127995854800499</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.3605925717305229</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3430995842844817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.373623056510048</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-6.720149974233094</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7005343388036227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.014144754901412</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-5.344652057923007</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.741643652473547</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-2.249343609072485</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.945478901420671</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.552763677134959</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.602893884648981</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.38362657900938</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.5896314640635061</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.196339511379769</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.290577345287686</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.337645951005574</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4132739001328325</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.036843425527086</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.001093726797151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.482481982290137</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.476468096074395</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00721320909322376</v>
       </c>
     </row>
   </sheetData>
